--- a/Data/MANOVA_Results.xlsx
+++ b/Data/MANOVA_Results.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="8120" yWindow="840" windowWidth="28160" windowHeight="16880" tabRatio="500" activeTab="2"/>
+    <workbookView xWindow="5440" yWindow="840" windowWidth="28160" windowHeight="16880" tabRatio="500" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="MANOVA of PCA by Site" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="56">
   <si>
     <t>Ahu_Tautira - Orito</t>
   </si>
@@ -288,8 +288,14 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="39">
+  <cellStyleXfs count="45">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -385,7 +391,7 @@
       <alignment horizontal="right"/>
     </xf>
   </cellXfs>
-  <cellStyles count="39">
+  <cellStyles count="45">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -405,6 +411,9 @@
     <cellStyle name="Followed Hyperlink" xfId="34" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="36" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="38" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="40" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="42" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="44" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -424,6 +433,9 @@
     <cellStyle name="Hyperlink" xfId="33" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="35" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="37" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="39" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="41" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="43" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -1278,10 +1290,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:R20"/>
+  <dimension ref="A1:Q20"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="C12" sqref="C12:E20"/>
+      <selection activeCell="L6" sqref="L6:Q11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1290,12 +1302,12 @@
     <col min="5" max="5" width="13.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="6" spans="1:18" ht="32" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:17" ht="32" x14ac:dyDescent="0.2">
       <c r="C6" s="12" t="s">
         <v>27</v>
       </c>
@@ -1321,16 +1333,13 @@
         <v>41</v>
       </c>
       <c r="P6" s="2" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="Q6" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="R6" s="2" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C7" s="3" t="s">
         <v>49</v>
       </c>
@@ -1359,14 +1368,11 @@
       <c r="P7" s="17" t="s">
         <v>23</v>
       </c>
-      <c r="Q7" s="17" t="s">
-        <v>23</v>
-      </c>
-      <c r="R7" s="18" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="Q7" s="18" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C8" s="3" t="s">
         <v>52</v>
       </c>
@@ -1390,17 +1396,14 @@
       <c r="O8" s="15" t="s">
         <v>23</v>
       </c>
-      <c r="P8" s="18" t="s">
-        <v>23</v>
-      </c>
-      <c r="Q8" s="17" t="s">
-        <v>23</v>
-      </c>
-      <c r="R8" s="18" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="P8" s="17" t="s">
+        <v>23</v>
+      </c>
+      <c r="Q8" s="18" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C9" s="3" t="s">
         <v>54</v>
       </c>
@@ -1423,44 +1426,35 @@
       <c r="N9" s="14"/>
       <c r="O9" s="14"/>
       <c r="P9" s="18" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="Q9" s="18" t="s">
         <v>23</v>
       </c>
-      <c r="R9" s="18" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.2">
+    </row>
+    <row r="10" spans="1:17" x14ac:dyDescent="0.2">
       <c r="L10" s="16" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="M10" s="14"/>
       <c r="N10" s="14"/>
       <c r="O10" s="14"/>
-      <c r="P10" s="15"/>
+      <c r="P10" s="14"/>
       <c r="Q10" s="18" t="s">
         <v>23</v>
       </c>
-      <c r="R10" s="18" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.2">
+    </row>
+    <row r="11" spans="1:17" x14ac:dyDescent="0.2">
       <c r="L11" s="16" t="s">
-        <v>42</v>
+        <v>53</v>
       </c>
       <c r="M11" s="14"/>
       <c r="N11" s="14"/>
       <c r="O11" s="14"/>
       <c r="P11" s="14"/>
-      <c r="Q11" s="14"/>
-      <c r="R11" s="18" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="Q11" s="15"/>
+    </row>
+    <row r="12" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C12" s="7" t="s">
         <v>27</v>
       </c>
@@ -1470,17 +1464,14 @@
       <c r="E12" s="8" t="s">
         <v>30</v>
       </c>
-      <c r="L12" s="16" t="s">
-        <v>53</v>
-      </c>
+      <c r="L12" s="16"/>
       <c r="M12" s="14"/>
       <c r="N12" s="14"/>
       <c r="O12" s="14"/>
       <c r="P12" s="14"/>
-      <c r="Q12" s="14"/>
-      <c r="R12" s="15"/>
-    </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="Q12" s="15"/>
+    </row>
+    <row r="13" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C13" s="19" t="s">
         <v>47</v>
       </c>
@@ -1491,7 +1482,7 @@
         <v>0.4108</v>
       </c>
     </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C14" s="3" t="s">
         <v>45</v>
       </c>
@@ -1502,7 +1493,7 @@
         <v>0.1497</v>
       </c>
     </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C15" s="3" t="s">
         <v>48</v>
       </c>
@@ -1513,7 +1504,7 @@
         <v>0.33329999999999999</v>
       </c>
     </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C16" s="3" t="s">
         <v>46</v>
       </c>
